--- a/ecard-template-with-ldm.xlsx
+++ b/ecard-template-with-ldm.xlsx
@@ -1333,9 +1333,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>491400</xdr:colOff>
+      <xdr:colOff>490320</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>14760</xdr:rowOff>
+      <xdr:rowOff>13680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1349,7 +1349,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5186880" y="684000"/>
-          <a:ext cx="1024920" cy="995040"/>
+          <a:ext cx="1023840" cy="993960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1364,15 +1364,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>471240</xdr:colOff>
+      <xdr:colOff>471600</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>99000</xdr:rowOff>
+      <xdr:rowOff>99360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>80280</xdr:colOff>
+      <xdr:colOff>79560</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>135360</xdr:rowOff>
+      <xdr:rowOff>134640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1385,8 +1385,82 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="851400" y="664560"/>
-          <a:ext cx="1030680" cy="982440"/>
+          <a:off x="851760" y="664920"/>
+          <a:ext cx="1029600" cy="981360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>401400</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>168480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>823320</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>194760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4663440" y="12252960"/>
+          <a:ext cx="907560" cy="426240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>484560</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>170640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>199440</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>118800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4746600" y="4179240"/>
+          <a:ext cx="1173240" cy="348120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1406,10 +1480,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AF932"/>
+  <dimension ref="A1:AF1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A41" colorId="64" zoomScale="124" zoomScaleNormal="100" zoomScalePageLayoutView="124" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H52" activeCellId="0" sqref="H52"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="C49" colorId="64" zoomScale="124" zoomScaleNormal="100" zoomScalePageLayoutView="124" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E62" activeCellId="0" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="true" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4151,75 +4225,75 @@
       <c r="AE60" s="2"/>
       <c r="AF60" s="2"/>
     </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="9"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
-      <c r="L61" s="11"/>
+    <row r="61" customFormat="false" ht="7.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="79"/>
+      <c r="B61" s="80"/>
+      <c r="C61" s="80"/>
+      <c r="D61" s="80"/>
+      <c r="E61" s="80"/>
+      <c r="F61" s="80"/>
+      <c r="G61" s="80"/>
+      <c r="H61" s="80"/>
+      <c r="I61" s="80"/>
+      <c r="J61" s="80"/>
+      <c r="K61" s="80"/>
+      <c r="L61" s="81"/>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
-      <c r="O61" s="9"/>
-      <c r="P61" s="3"/>
-      <c r="Q61" s="3"/>
-      <c r="R61" s="3"/>
-      <c r="S61" s="3"/>
-      <c r="T61" s="3"/>
-      <c r="U61" s="3"/>
-      <c r="V61" s="3"/>
-      <c r="W61" s="3"/>
-      <c r="X61" s="3"/>
-      <c r="Y61" s="3"/>
-      <c r="Z61" s="3"/>
-      <c r="AA61" s="3"/>
-      <c r="AB61" s="3"/>
-      <c r="AC61" s="11"/>
+      <c r="O61" s="79"/>
+      <c r="P61" s="80"/>
+      <c r="Q61" s="80"/>
+      <c r="R61" s="80"/>
+      <c r="S61" s="80"/>
+      <c r="T61" s="80"/>
+      <c r="U61" s="80"/>
+      <c r="V61" s="80"/>
+      <c r="W61" s="80"/>
+      <c r="X61" s="80"/>
+      <c r="Y61" s="80"/>
+      <c r="Z61" s="80"/>
+      <c r="AA61" s="80"/>
+      <c r="AB61" s="80"/>
+      <c r="AC61" s="81"/>
       <c r="AD61" s="2"/>
       <c r="AE61" s="2"/>
       <c r="AF61" s="2"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="79"/>
-      <c r="B62" s="80"/>
-      <c r="C62" s="80"/>
-      <c r="D62" s="80"/>
-      <c r="E62" s="80"/>
-      <c r="F62" s="80"/>
-      <c r="G62" s="80"/>
-      <c r="H62" s="80"/>
-      <c r="I62" s="80"/>
-      <c r="J62" s="80"/>
-      <c r="K62" s="80"/>
-      <c r="L62" s="81"/>
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
-      <c r="O62" s="79"/>
-      <c r="P62" s="80"/>
-      <c r="Q62" s="80"/>
-      <c r="R62" s="80"/>
-      <c r="S62" s="80"/>
-      <c r="T62" s="80"/>
-      <c r="U62" s="80"/>
-      <c r="V62" s="80"/>
-      <c r="W62" s="80"/>
-      <c r="X62" s="80"/>
-      <c r="Y62" s="80"/>
-      <c r="Z62" s="80"/>
-      <c r="AA62" s="80"/>
-      <c r="AB62" s="80"/>
-      <c r="AC62" s="81"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3"/>
+      <c r="S62" s="3"/>
+      <c r="T62" s="3"/>
+      <c r="U62" s="3"/>
+      <c r="V62" s="3"/>
+      <c r="W62" s="3"/>
+      <c r="X62" s="3"/>
+      <c r="Y62" s="3"/>
+      <c r="Z62" s="3"/>
+      <c r="AA62" s="3"/>
+      <c r="AB62" s="3"/>
+      <c r="AC62" s="2"/>
       <c r="AD62" s="2"/>
       <c r="AE62" s="2"/>
       <c r="AF62" s="2"/>
     </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -33765,40 +33839,7 @@
       <c r="AE931" s="2"/>
       <c r="AF931" s="2"/>
     </row>
-    <row r="932" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A932" s="2"/>
-      <c r="B932" s="2"/>
-      <c r="C932" s="2"/>
-      <c r="D932" s="2"/>
-      <c r="E932" s="2"/>
-      <c r="F932" s="2"/>
-      <c r="G932" s="2"/>
-      <c r="H932" s="2"/>
-      <c r="I932" s="2"/>
-      <c r="J932" s="2"/>
-      <c r="K932" s="2"/>
-      <c r="L932" s="2"/>
-      <c r="M932" s="2"/>
-      <c r="N932" s="2"/>
-      <c r="O932" s="2"/>
-      <c r="P932" s="3"/>
-      <c r="Q932" s="3"/>
-      <c r="R932" s="3"/>
-      <c r="S932" s="3"/>
-      <c r="T932" s="3"/>
-      <c r="U932" s="3"/>
-      <c r="V932" s="3"/>
-      <c r="W932" s="3"/>
-      <c r="X932" s="3"/>
-      <c r="Y932" s="3"/>
-      <c r="Z932" s="3"/>
-      <c r="AA932" s="3"/>
-      <c r="AB932" s="3"/>
-      <c r="AC932" s="2"/>
-      <c r="AD932" s="2"/>
-      <c r="AE932" s="2"/>
-      <c r="AF932" s="2"/>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="110">
     <mergeCell ref="P4:R5"/>
